--- a/selected_particles/100%water_particle_selection.xlsx
+++ b/selected_particles/100%water_particle_selection.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MEGA\-MY PROJECTS-\00-Reference\0000 HUJI\77302 Physics Lab II\brownian-motion-lab\particle_selection_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MEGA\-MY PROJECTS-\00-Reference\0000 HUJI\77302 Physics Lab II\brownian-motion-lab\selected_particles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B8B014-ECFF-46DA-B3AC-B44A16833FC6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD95BF34-97D0-4BDB-8198-4236FC582DD0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="7344" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
     <t>100%water</t>
   </si>
   <si>
-    <t>actual size</t>
+    <t>actual_size</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
